--- a/src/ExcelsiorSyncfusion.Tests/StructTests.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/StructTests.Test.verified.xlsx
@@ -131,7 +131,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/src/ExcelsiorSyncfusion.Tests/StructTests.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/StructTests.Test.verified.xlsx
@@ -131,7 +131,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
